--- a/biology/Médecine/LVL_Medical/LVL_Medical.xlsx
+++ b/biology/Médecine/LVL_Medical/LVL_Medical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-LVL Médical Groupe est la holding de plusieurs entreprises prestataires de santé à domicile. Il propose des prestations d'assistance respiratoire, de perfusion, de nutrition et d'insulinothérapie par pompe à domicile. En 2012, LVL Médical a été racheté par Air liquide Healthcare[2].
+LVL Médical Groupe est la holding de plusieurs entreprises prestataires de santé à domicile. Il propose des prestations d'assistance respiratoire, de perfusion, de nutrition et d'insulinothérapie par pompe à domicile. En 2012, LVL Médical a été racheté par Air liquide Healthcare.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Son histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Créé en 1989, LVL Médical est un des pionniers de la prestation de santé à domicile en France. 
 Les dates clés de l’histoire de LVL Médical :
@@ -523,7 +537,7 @@
 2005 : développement de la chimiothérapie et de l'immunothérapie à domicile.
 2006 : certification ISO 9001 pour l'ensemble de ses filiales.
 2007 : traitement de la maladie de Parkinson à domicile.
-2012 : rachat de l'entreprise par Air liquide[2]
+2012 : rachat de l'entreprise par Air liquide
 2016 : création du numéro unique 0 808 800 300 dédié aux patients et aux prescripteurs.</t>
         </is>
       </c>
@@ -552,7 +566,9 @@
           <t>Filiales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">LVL Medical Est
 LVL Medical Ouest
@@ -589,7 +605,9 @@
           <t>Les quatre domaines d'activité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>LVL Médical est présent sur quatre domaines d'expertises : 
 L'Assistance Respiratoire avec les traitements suivants :
